--- a/biology/Zoologie/Étangs_de_la_Champagne_humide/Étangs_de_la_Champagne_humide.xlsx
+++ b/biology/Zoologie/Étangs_de_la_Champagne_humide/Étangs_de_la_Champagne_humide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tangs_de_la_Champagne_humide</t>
+          <t>Étangs_de_la_Champagne_humide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les étangs de la Champagne humide sont un site Ramsar de France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tangs_de_la_Champagne_humide</t>
+          <t>Étangs_de_la_Champagne_humide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site s'étend sur trois départements de la région Grand Est : Aube, Marne et Haute-Marne. Avec 2 564,08 km2, il s'agit en 2020 du plus grand site Ramsar de France métropolitaine (et le 2e plus grand site Ramsar de France, après la réserve naturelle nationale des Terres australes françaises).
-La Champagne humide est région naturelle de l'est de la France, qui s'étend en arc de cercle de l'Argonne au nord au Pays d'Othe au sud, entre la Champagne crayeuse à l'ouest et la Côte de Champagne (Barrois lorrain, Vallage et Barrois champenois) à l'est[2]. Vaste dépression recouverte d'alluvions, son sol imperméable est parsemé de très nombreuses rivières et plans d'eau, dont quatre réservoirs construits entre les années 1960 et 1990 afin de réguler le débit de la Seine (lac d'Orient), de la Marne (lac du Der-Chantecoq) et de l'Aube (lacs Amance et du Temple)[3].
-Le site est un refuge hivernal pour près de 150 000 oiseaux aquatiques (en)[4]. Il abrite en été près de 150 cigogne noires et 30 000 grues cendrées[4]. Il s'agit également de l'un des derniers sites de nidifications du héron pourpré, du blongios nain et de la rousserolle turdoïde dans le Grand Est[4].
+La Champagne humide est région naturelle de l'est de la France, qui s'étend en arc de cercle de l'Argonne au nord au Pays d'Othe au sud, entre la Champagne crayeuse à l'ouest et la Côte de Champagne (Barrois lorrain, Vallage et Barrois champenois) à l'est. Vaste dépression recouverte d'alluvions, son sol imperméable est parsemé de très nombreuses rivières et plans d'eau, dont quatre réservoirs construits entre les années 1960 et 1990 afin de réguler le débit de la Seine (lac d'Orient), de la Marne (lac du Der-Chantecoq) et de l'Aube (lacs Amance et du Temple).
+Le site est un refuge hivernal pour près de 150 000 oiseaux aquatiques (en). Il abrite en été près de 150 cigogne noires et 30 000 grues cendrées. Il s'agit également de l'un des derniers sites de nidifications du héron pourpré, du blongios nain et de la rousserolle turdoïde dans le Grand Est.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tangs_de_la_Champagne_humide</t>
+          <t>Étangs_de_la_Champagne_humide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Aires protégées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le site Ramsar recouvre de nombreuses aires protégées distinctes[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le site Ramsar recouvre de nombreuses aires protégées distinctes :
 Réserves naturelles nationales : étangs de Belval-en-Argonne, étang de la Horre, étang de Ramerupt, étang et prairie humide des Paquis, forêt d'Orient, prairies humides de Courteranges
 Réserve nationale de chasse : réserve du Der-Chantecoq et des étangs d'Outines et d'Arrigny
 Parc naturel régional : forêt d'Orient
